--- a/TB.xlsx
+++ b/TB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillromanenko/Desktop/МАГИСТРАТУРА/Кучерову/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D7D172-0C71-4749-9AAB-2DBBE831831C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE04550-681F-874A-9D7B-2EDD0EA9853A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -956,8 +956,8 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1066,16 +1066,13 @@
         <v>9844000</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:J3" si="0">TREND(B3:G3)</f>
-        <v>10322285.714285715</v>
+        <v>10322285.710000001</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" si="0"/>
-        <v>10156564.625850342</v>
+        <v>10156564.630000001</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" si="0"/>
-        <v>10023307.418205379</v>
+        <v>10023307.42</v>
       </c>
       <c r="K3" s="27"/>
     </row>

--- a/TB.xlsx
+++ b/TB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillromanenko/Desktop/МАГИСТРАТУРА/Кучерову/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE04550-681F-874A-9D7B-2EDD0EA9853A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CA8EEC-4701-4F4B-929F-A82DB8EB1641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Общие для всех отраслей</t>
   </si>
@@ -143,37 +143,19 @@
     <t>Рнир - обрабатывающая промышленность</t>
   </si>
   <si>
-    <t>Рнир - добывающая промышленность</t>
-  </si>
-  <si>
-    <t>В - добывающая промышленность</t>
-  </si>
-  <si>
     <t>В - обрабатывающая промышленность</t>
   </si>
   <si>
-    <t>И2 , добывающая промышленность</t>
-  </si>
-  <si>
     <t>И2, обрабатывающая промышленность</t>
   </si>
   <si>
-    <t>И5 , добывающая промышленность</t>
-  </si>
-  <si>
     <t>И5 , обрабатывающая промышленность</t>
   </si>
   <si>
     <t>Чрппт, обрабатывающая промышленность</t>
   </si>
   <si>
-    <t>Чрппт, добывающая промышленность</t>
-  </si>
-  <si>
     <t>Чвппт, обрабатывающая промышленность</t>
-  </si>
-  <si>
-    <t>Чвппт, добывающая промышленность</t>
   </si>
   <si>
     <t>Примечание</t>
@@ -954,10 +936,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1005,7 +987,7 @@
         <v>2018</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="51">
@@ -1345,36 +1327,36 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="34">
+    <row r="12" spans="1:19" ht="51">
       <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="36">
-        <v>21372.4267</v>
-      </c>
-      <c r="C12" s="36">
-        <v>23051.252</v>
-      </c>
-      <c r="D12" s="36">
-        <v>33489.559200000003</v>
-      </c>
-      <c r="E12" s="44">
-        <v>41036.284599999999</v>
-      </c>
-      <c r="F12" s="44">
-        <v>41125.1</v>
-      </c>
-      <c r="G12" s="44">
-        <v>96197.1</v>
-      </c>
-      <c r="H12" s="44">
-        <v>101296.6</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1071.5999999999999</v>
-      </c>
-      <c r="J12" s="36">
-        <v>1142.7</v>
+      <c r="B12" s="33">
+        <v>17789635.923</v>
+      </c>
+      <c r="C12" s="45">
+        <v>22363340.842</v>
+      </c>
+      <c r="D12" s="32">
+        <v>25227268.153000001</v>
+      </c>
+      <c r="E12" s="27">
+        <v>27620975.026999999</v>
+      </c>
+      <c r="F12" s="32">
+        <v>29688474.464000002</v>
+      </c>
+      <c r="G12" s="32">
+        <v>31573571.585999999</v>
+      </c>
+      <c r="H12" s="46">
+        <v>10280984.222999999</v>
+      </c>
+      <c r="I12" s="47">
+        <v>36504772.473900005</v>
+      </c>
+      <c r="J12" s="27">
+        <v>43450190.905699998</v>
       </c>
       <c r="K12" s="27"/>
       <c r="N12" s="2"/>
@@ -1384,36 +1366,36 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="34">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:19" ht="51">
+      <c r="A13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="33">
-        <v>6204998.2350000003</v>
-      </c>
-      <c r="C13" s="45">
-        <v>8112100.2620000001</v>
-      </c>
-      <c r="D13" s="32">
-        <v>8705503.0930000003</v>
-      </c>
-      <c r="E13" s="32">
-        <v>9140778.4989999998</v>
-      </c>
-      <c r="F13" s="32">
-        <v>9787848.2550000008</v>
-      </c>
-      <c r="G13" s="32">
-        <v>11365249.992000001</v>
-      </c>
-      <c r="H13" s="46">
-        <v>11851286.557</v>
-      </c>
-      <c r="I13" s="47">
-        <v>13995230.8851</v>
-      </c>
-      <c r="J13" s="27">
-        <v>17637650.430199999</v>
+      <c r="B13" s="48">
+        <v>6.7236815944300687</v>
+      </c>
+      <c r="C13" s="48">
+        <v>6.8427804643261068</v>
+      </c>
+      <c r="D13" s="49">
+        <v>9.6192816741568166</v>
+      </c>
+      <c r="E13" s="49">
+        <v>11.6</v>
+      </c>
+      <c r="F13" s="49">
+        <v>9.9</v>
+      </c>
+      <c r="G13" s="49">
+        <v>10.6</v>
+      </c>
+      <c r="H13" s="49">
+        <v>10.9</v>
+      </c>
+      <c r="I13" s="36">
+        <v>8.6</v>
+      </c>
+      <c r="J13" s="36">
+        <v>7.7</v>
       </c>
       <c r="K13" s="27"/>
       <c r="N13" s="2"/>
@@ -1424,35 +1406,35 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="51">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="33">
-        <v>17789635.923</v>
-      </c>
-      <c r="C14" s="45">
-        <v>22363340.842</v>
-      </c>
-      <c r="D14" s="32">
-        <v>25227268.153000001</v>
-      </c>
-      <c r="E14" s="27">
-        <v>27620975.026999999</v>
-      </c>
-      <c r="F14" s="32">
-        <v>29688474.464000002</v>
-      </c>
-      <c r="G14" s="32">
-        <v>31573571.585999999</v>
-      </c>
-      <c r="H14" s="46">
-        <v>10280984.222999999</v>
-      </c>
-      <c r="I14" s="47">
-        <v>36504772.473900005</v>
-      </c>
-      <c r="J14" s="27">
-        <v>43450190.905699998</v>
+      <c r="B14" s="48">
+        <v>1.7703709801635552</v>
+      </c>
+      <c r="C14" s="48">
+        <v>1.9338636874084907</v>
+      </c>
+      <c r="D14" s="48">
+        <v>2.0981187581347176</v>
+      </c>
+      <c r="E14" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="F14" s="48">
+        <v>2.4</v>
+      </c>
+      <c r="G14" s="48">
+        <v>2.09</v>
+      </c>
+      <c r="H14" s="48">
+        <v>1.95</v>
+      </c>
+      <c r="I14" s="50">
+        <v>1.9</v>
+      </c>
+      <c r="J14" s="51">
+        <v>1.71</v>
       </c>
       <c r="K14" s="27"/>
       <c r="N14" s="2"/>
@@ -1462,36 +1444,36 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="34">
+    <row r="15" spans="1:19" ht="51">
       <c r="A15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="48">
-        <v>2.7213884693084172</v>
-      </c>
-      <c r="C15" s="48">
-        <v>6.709336810775353</v>
-      </c>
-      <c r="D15" s="49">
-        <v>6.5306667527048807</v>
-      </c>
-      <c r="E15" s="49">
-        <v>6</v>
-      </c>
-      <c r="F15" s="49">
-        <v>7.2</v>
-      </c>
-      <c r="G15" s="49">
-        <v>3.7</v>
-      </c>
-      <c r="H15" s="49">
-        <v>4</v>
-      </c>
-      <c r="I15" s="36">
-        <v>3.9</v>
-      </c>
-      <c r="J15" s="36">
-        <v>3.6</v>
+      <c r="B15" s="50">
+        <v>231</v>
+      </c>
+      <c r="C15" s="50">
+        <v>338</v>
+      </c>
+      <c r="D15" s="50">
+        <v>336</v>
+      </c>
+      <c r="E15" s="50">
+        <v>398</v>
+      </c>
+      <c r="F15" s="50">
+        <v>414</v>
+      </c>
+      <c r="G15" s="50">
+        <v>442</v>
+      </c>
+      <c r="H15" s="50">
+        <v>523</v>
+      </c>
+      <c r="I15" s="50">
+        <v>442</v>
+      </c>
+      <c r="J15" s="50">
+        <v>502</v>
       </c>
       <c r="K15" s="27"/>
       <c r="N15" s="2"/>
@@ -1505,32 +1487,32 @@
       <c r="A16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="48">
-        <v>6.7236815944300687</v>
-      </c>
-      <c r="C16" s="48">
-        <v>6.8427804643261068</v>
-      </c>
-      <c r="D16" s="49">
-        <v>9.6192816741568166</v>
-      </c>
-      <c r="E16" s="49">
-        <v>11.6</v>
-      </c>
-      <c r="F16" s="49">
-        <v>9.9</v>
-      </c>
-      <c r="G16" s="49">
-        <v>10.6</v>
-      </c>
-      <c r="H16" s="49">
-        <v>10.9</v>
-      </c>
-      <c r="I16" s="36">
-        <v>8.6</v>
-      </c>
-      <c r="J16" s="36">
-        <v>7.7</v>
+      <c r="B16" s="50">
+        <v>135945</v>
+      </c>
+      <c r="C16" s="50">
+        <v>118021</v>
+      </c>
+      <c r="D16" s="50">
+        <v>119182</v>
+      </c>
+      <c r="E16" s="50">
+        <v>121103</v>
+      </c>
+      <c r="F16" s="50">
+        <v>127492</v>
+      </c>
+      <c r="G16" s="50">
+        <v>146700</v>
+      </c>
+      <c r="H16" s="50">
+        <v>152820</v>
+      </c>
+      <c r="I16" s="50">
+        <v>157881</v>
+      </c>
+      <c r="J16" s="28">
+        <v>164906</v>
       </c>
       <c r="K16" s="27"/>
       <c r="N16" s="2"/>
@@ -1540,38 +1522,36 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" ht="34">
+    <row r="17" spans="1:19" ht="17">
       <c r="A17" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="48">
-        <v>0.96125292555740061</v>
-      </c>
-      <c r="C17" s="48">
-        <v>0.91191524014045922</v>
-      </c>
-      <c r="D17" s="48">
-        <v>1.0962734851322997</v>
-      </c>
-      <c r="E17" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F17" s="48">
-        <v>1.4</v>
-      </c>
-      <c r="G17" s="48">
-        <v>1.27</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1.31</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="50">
+        <v>100.9</v>
+      </c>
+      <c r="C17" s="50">
+        <v>100.3</v>
+      </c>
+      <c r="D17" s="50">
+        <v>104.2</v>
+      </c>
+      <c r="E17" s="50">
+        <v>101</v>
+      </c>
+      <c r="F17" s="50">
+        <v>88.7</v>
+      </c>
+      <c r="G17" s="50">
+        <v>101</v>
+      </c>
+      <c r="H17" s="50">
+        <v>101.2</v>
       </c>
       <c r="I17" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="J17" s="51">
-        <v>0.94</v>
-      </c>
-      <c r="K17" s="27"/>
+        <v>97.733999999999995</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
       <c r="N17" s="2"/>
       <c r="O17" s="4"/>
       <c r="P17" s="3"/>
@@ -1579,38 +1559,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="51">
-      <c r="A18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="48">
-        <v>1.7703709801635552</v>
-      </c>
-      <c r="C18" s="48">
-        <v>1.9338636874084907</v>
-      </c>
-      <c r="D18" s="48">
-        <v>2.0981187581347176</v>
-      </c>
-      <c r="E18" s="48">
-        <v>2.7</v>
-      </c>
-      <c r="F18" s="48">
-        <v>2.4</v>
-      </c>
-      <c r="G18" s="48">
-        <v>2.09</v>
-      </c>
-      <c r="H18" s="48">
-        <v>1.95</v>
-      </c>
-      <c r="I18" s="50">
-        <v>1.9</v>
-      </c>
-      <c r="J18" s="51">
-        <v>1.71</v>
-      </c>
-      <c r="K18" s="27"/>
+    <row r="18" spans="1:19">
       <c r="N18" s="2"/>
       <c r="O18" s="4"/>
       <c r="P18" s="3"/>
@@ -1618,174 +1567,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="34">
-      <c r="A19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="50">
-        <v>5</v>
-      </c>
-      <c r="C19" s="50">
-        <v>10</v>
-      </c>
-      <c r="D19" s="50">
-        <v>14</v>
-      </c>
-      <c r="E19" s="50">
-        <v>15</v>
-      </c>
-      <c r="F19" s="50">
-        <v>25</v>
-      </c>
-      <c r="G19" s="50">
-        <v>18</v>
-      </c>
-      <c r="H19" s="50">
-        <v>25</v>
-      </c>
-      <c r="I19" s="50">
-        <v>23</v>
-      </c>
-      <c r="J19" s="50">
-        <v>22</v>
-      </c>
-      <c r="K19" s="27"/>
+    <row r="19" spans="1:19">
       <c r="N19" s="2"/>
       <c r="O19" s="4"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="51">
-      <c r="A20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="50">
-        <v>231</v>
-      </c>
-      <c r="C20" s="50">
-        <v>338</v>
-      </c>
-      <c r="D20" s="50">
-        <v>336</v>
-      </c>
-      <c r="E20" s="50">
-        <v>398</v>
-      </c>
-      <c r="F20" s="50">
-        <v>414</v>
-      </c>
-      <c r="G20" s="50">
-        <v>442</v>
-      </c>
-      <c r="H20" s="50">
-        <v>523</v>
-      </c>
-      <c r="I20" s="50">
-        <v>442</v>
-      </c>
-      <c r="J20" s="50">
-        <v>502</v>
-      </c>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="1:19" ht="34">
-      <c r="A21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="50">
-        <v>7914</v>
-      </c>
-      <c r="C21" s="50">
-        <v>8474</v>
-      </c>
-      <c r="D21" s="50">
-        <v>9527</v>
-      </c>
-      <c r="E21" s="50">
-        <v>9050</v>
-      </c>
-      <c r="F21" s="50">
-        <v>8892</v>
-      </c>
-      <c r="G21" s="50">
-        <v>9222</v>
-      </c>
-      <c r="H21" s="50">
-        <v>9989</v>
-      </c>
-      <c r="I21" s="50">
-        <v>10181</v>
-      </c>
-      <c r="J21" s="28">
-        <v>11128</v>
-      </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:19" ht="51">
-      <c r="A22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="50">
-        <v>135945</v>
-      </c>
-      <c r="C22" s="50">
-        <v>118021</v>
-      </c>
-      <c r="D22" s="50">
-        <v>119182</v>
-      </c>
-      <c r="E22" s="50">
-        <v>121103</v>
-      </c>
-      <c r="F22" s="50">
-        <v>127492</v>
-      </c>
-      <c r="G22" s="50">
-        <v>146700</v>
-      </c>
-      <c r="H22" s="50">
-        <v>152820</v>
-      </c>
-      <c r="I22" s="50">
-        <v>157881</v>
-      </c>
-      <c r="J22" s="28">
-        <v>164906</v>
-      </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:19" ht="17">
-      <c r="A23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="50">
-        <v>100.9</v>
-      </c>
-      <c r="C23" s="50">
-        <v>100.3</v>
-      </c>
-      <c r="D23" s="50">
-        <v>104.2</v>
-      </c>
-      <c r="E23" s="50">
-        <v>101</v>
-      </c>
-      <c r="F23" s="50">
-        <v>88.7</v>
-      </c>
-      <c r="G23" s="50">
-        <v>101</v>
-      </c>
-      <c r="H23" s="50">
-        <v>101.2</v>
-      </c>
-      <c r="I23" s="50">
-        <v>97.733999999999995</v>
-      </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
